--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620383.353960654</v>
+        <v>1617697.945727211</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673409</v>
+        <v>603248.4937673454</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.62903715749017</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>153.3100698760835</v>
       </c>
       <c r="U3" t="n">
-        <v>213.313237351243</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>114.9759797569272</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>203.5206924671573</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>64.86522656060616</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.4773344784372</v>
+        <v>311.9667603188012</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41971906875771</v>
+        <v>383.4773344784398</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9490894518052</v>
       </c>
       <c r="I5" t="n">
-        <v>99.32832091644352</v>
+        <v>99.32832091644316</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1150114321263</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.4773344784398</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>85.53751118469769</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8009663029626</v>
+        <v>38.83599588683531</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33765040199573</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.28687735603329</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9471662361903</v>
       </c>
       <c r="U6" t="n">
         <v>225.839898471748</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>137.784885708604</v>
+        <v>137.7848857086078</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848256</v>
+        <v>1.928326488847972</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>232.6696318580512</v>
       </c>
       <c r="H8" t="n">
-        <v>145.4887626273892</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9887295418968</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>30.09519610355497</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>124.0149423236135</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>288.7511433632823</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344954</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111903</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>201.4146274292355</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>84.55076500094806</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749271</v>
+        <v>86.64179915749278</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489821</v>
+        <v>8.282546271490048</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>122.4601525254634</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487705</v>
+        <v>189.4832755487706</v>
       </c>
       <c r="U12" t="n">
         <v>225.7670384496465</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.5234367969433</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>71.43478995232284</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389548</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>218.4529121465558</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349722</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081959</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>3.132302579345541</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.804576744409</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>188.559303749955</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.4423155261914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001848</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6267707433219</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>18.22623717053371</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261907</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352977</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>23.0548291084338</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.09022128689622</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161935949</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695597</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428401</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158266</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>253.6303937659906</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701371</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703343</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034176</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557918976</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>130.120807446026</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705789</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824234</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695588</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053476</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>153.3553494954612</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
@@ -4340,10 +4340,10 @@
         <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716687</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X2" t="n">
-        <v>255.7225503044907</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>686.1106626298172</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.200219490875</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4410,19 +4410,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>899.9968635655364</v>
       </c>
       <c r="U3" t="n">
-        <v>821.0517196964079</v>
+        <v>671.8610176023499</v>
       </c>
       <c r="V3" t="n">
-        <v>821.0517196964079</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="W3" t="n">
-        <v>821.0517196964079</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>613.200219490875</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>613.200219490875</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305.8038243349425</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8038243349425</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8038243349425</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8038243349425</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>720.486534803175</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>720.486534803175</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388467</v>
+        <v>720.486534803175</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329599</v>
+        <v>720.486534803175</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329599</v>
+        <v>720.486534803175</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349425</v>
+        <v>720.486534803175</v>
       </c>
       <c r="Y4" t="n">
-        <v>305.8038243349425</v>
+        <v>499.6939556596449</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>596.4262686009463</v>
+        <v>1146.558495006244</v>
       </c>
       <c r="C5" t="n">
-        <v>596.4262686009463</v>
+        <v>1146.558495006244</v>
       </c>
       <c r="D5" t="n">
-        <v>596.4262686009463</v>
+        <v>1146.558495006244</v>
       </c>
       <c r="E5" t="n">
-        <v>530.9058377316471</v>
+        <v>1146.558495006244</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5549948241348</v>
+        <v>831.4405552902833</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0098240476119</v>
+        <v>444.0897123827684</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0098240476119</v>
+        <v>131.0098240476117</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="J5" t="n">
-        <v>93.68840227144216</v>
+        <v>93.68840227144307</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998582992</v>
+        <v>238.8628998583013</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799364</v>
+        <v>455.8664631799402</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296668</v>
+        <v>728.9941769296721</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012934</v>
+        <v>1011.155191012941</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219954</v>
+        <v>1264.256574219962</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220735</v>
+        <v>1445.771748220744</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="S5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="T5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="U5" t="n">
-        <v>1280.257811214631</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="V5" t="n">
-        <v>949.1949238710605</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="W5" t="n">
-        <v>596.4262686009463</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="X5" t="n">
-        <v>596.4262686009463</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="Y5" t="n">
-        <v>596.4262686009463</v>
+        <v>1146.558495006244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400.7869644158954</v>
+        <v>204.8807358945018</v>
       </c>
       <c r="C6" t="n">
-        <v>400.7869644158954</v>
+        <v>204.8807358945018</v>
       </c>
       <c r="D6" t="n">
-        <v>400.7869644158954</v>
+        <v>204.8807358945018</v>
       </c>
       <c r="E6" t="n">
-        <v>314.3854379667058</v>
+        <v>204.8807358945018</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8508799935908</v>
+        <v>204.8807358945018</v>
       </c>
       <c r="G6" t="n">
-        <v>30.67818675827498</v>
+        <v>165.6524572209308</v>
       </c>
       <c r="H6" t="n">
-        <v>30.67818675827498</v>
+        <v>67.33159822901588</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="J6" t="n">
-        <v>70.50414779342434</v>
+        <v>49.3887924977349</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6383779085198</v>
+        <v>231.1440187154479</v>
       </c>
       <c r="L6" t="n">
-        <v>375.0499828615881</v>
+        <v>425.5556236685172</v>
       </c>
       <c r="M6" t="n">
-        <v>621.2760242110846</v>
+        <v>671.781665018015</v>
       </c>
       <c r="N6" t="n">
-        <v>888.4275811223971</v>
+        <v>938.9332219293287</v>
       </c>
       <c r="O6" t="n">
-        <v>1110.599268204485</v>
+        <v>1318.575783062984</v>
       </c>
       <c r="P6" t="n">
-        <v>1269.578567846507</v>
+        <v>1477.555082705008</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="R6" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="S6" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913759</v>
       </c>
       <c r="T6" t="n">
-        <v>1533.909337913749</v>
+        <v>1338.003109392355</v>
       </c>
       <c r="U6" t="n">
-        <v>1305.788228346326</v>
+        <v>1109.881999824933</v>
       </c>
       <c r="V6" t="n">
-        <v>1070.636120114584</v>
+        <v>874.7298915931901</v>
       </c>
       <c r="W6" t="n">
-        <v>816.3987633863821</v>
+        <v>620.4925348649886</v>
       </c>
       <c r="X6" t="n">
-        <v>608.5472631808493</v>
+        <v>412.6410346594557</v>
       </c>
       <c r="Y6" t="n">
-        <v>400.7869644158954</v>
+        <v>204.8807358945018</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.1038962734605</v>
+        <v>785.1038962734643</v>
       </c>
       <c r="C7" t="n">
         <v>645.9272440425474</v>
@@ -4711,64 +4711,64 @@
         <v>347.8975110478185</v>
       </c>
       <c r="F7" t="n">
-        <v>201.0075635499082</v>
+        <v>201.0075635499081</v>
       </c>
       <c r="G7" t="n">
-        <v>32.62599129246513</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="H7" t="n">
-        <v>32.62599129246513</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246513</v>
+        <v>32.62599129246506</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827519</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199914</v>
+        <v>157.3778790199921</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406462</v>
+        <v>375.0362985406475</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573549</v>
+        <v>614.9157070573568</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182302</v>
+        <v>854.5259358182328</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.828468603748</v>
+        <v>1059.828468603751</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281384</v>
+        <v>1211.979570281388</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="W7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315012</v>
       </c>
       <c r="X7" t="n">
-        <v>1005.896475416991</v>
+        <v>1005.896475416994</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.1038962734605</v>
+        <v>785.1038962734643</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1768.949738926588</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C8" t="n">
-        <v>1768.949738926588</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="D8" t="n">
-        <v>1410.684040319838</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="E8" t="n">
-        <v>1024.895787721594</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="F8" t="n">
-        <v>613.9098829319862</v>
+        <v>656.6994098941921</v>
       </c>
       <c r="G8" t="n">
-        <v>198.2051326562751</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926588</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1768.949738926588</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193025</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1606.046932091108</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1316.629762054147</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>1021.765895288653</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2330.350214717803</v>
+        <v>1896.12806135632</v>
       </c>
       <c r="C11" t="n">
-        <v>1961.387697777391</v>
+        <v>1527.165544415909</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.121999170641</v>
+        <v>1168.899845809158</v>
       </c>
       <c r="E11" t="n">
-        <v>1217.333746572397</v>
+        <v>783.111593210914</v>
       </c>
       <c r="F11" t="n">
-        <v>806.3478417827891</v>
+        <v>372.1256884213064</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8530338894378</v>
+        <v>372.1256884213064</v>
       </c>
       <c r="H11" t="n">
-        <v>100.185212310365</v>
+        <v>80.45786684223343</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223415</v>
+        <v>80.45786684223343</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746716</v>
+        <v>317.38803207467</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947047</v>
+        <v>723.2234501947016</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653017</v>
+        <v>1263.599934653011</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.54233045867</v>
+        <v>1896.542330458661</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328194</v>
+        <v>2544.340204328182</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990717</v>
+        <v>3142.702105990703</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608865</v>
+        <v>3618.889144608849</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718607</v>
+        <v>3928.31303271859</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111708</v>
+        <v>4022.893342111691</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111708</v>
+        <v>3925.765696676217</v>
       </c>
       <c r="T11" t="n">
-        <v>3819.444223496319</v>
+        <v>3722.316578060827</v>
       </c>
       <c r="U11" t="n">
-        <v>3565.959958151087</v>
+        <v>3468.832312715597</v>
       </c>
       <c r="V11" t="n">
-        <v>3480.555145018816</v>
+        <v>3137.769425372026</v>
       </c>
       <c r="W11" t="n">
-        <v>3480.555145018816</v>
+        <v>2785.000770101912</v>
       </c>
       <c r="X11" t="n">
-        <v>3107.089386757737</v>
+        <v>2411.535011840832</v>
       </c>
       <c r="Y11" t="n">
-        <v>2716.950054781925</v>
+        <v>2021.395679865021</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727438</v>
+        <v>88.82407519727427</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223415</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J12" t="n">
-        <v>202.7540031635564</v>
+        <v>202.7540031635554</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036204</v>
+        <v>489.9324039036183</v>
       </c>
       <c r="L12" t="n">
-        <v>922.4017448696466</v>
+        <v>922.4017448696429</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.429935688259</v>
+        <v>1446.429935688253</v>
       </c>
       <c r="N12" t="n">
-        <v>1998.73623833904</v>
+        <v>1998.736238339033</v>
       </c>
       <c r="O12" t="n">
-        <v>2481.768808271242</v>
+        <v>2481.768808271233</v>
       </c>
       <c r="P12" t="n">
         <v>2557.913016602452</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.7574564555285</v>
+        <v>321.5504032573356</v>
       </c>
       <c r="C13" t="n">
-        <v>692.8212735276217</v>
+        <v>152.6142203294287</v>
       </c>
       <c r="D13" t="n">
-        <v>542.7046341152859</v>
+        <v>152.6142203294287</v>
       </c>
       <c r="E13" t="n">
-        <v>394.7915405328928</v>
+        <v>152.6142203294287</v>
       </c>
       <c r="F13" t="n">
-        <v>247.9015930349825</v>
+        <v>152.6142203294286</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223415</v>
+        <v>152.6142203294286</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223415</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223415</v>
+        <v>80.45786684223381</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283905</v>
+        <v>143.5350566283898</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076825</v>
+        <v>377.0270927076809</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977136</v>
+        <v>731.3429449977112</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583785</v>
+        <v>1115.308455583782</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955087</v>
+        <v>1495.578740955083</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510219</v>
+        <v>1830.803602510214</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226119</v>
+        <v>2094.125701226114</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.0011931677</v>
+        <v>2193.001193167694</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.0011931677</v>
+        <v>2193.001193167694</v>
       </c>
       <c r="S13" t="n">
-        <v>2193.0011931677</v>
+        <v>2005.83089716875</v>
       </c>
       <c r="T13" t="n">
-        <v>1972.341685948957</v>
+        <v>1785.171389950007</v>
       </c>
       <c r="U13" t="n">
-        <v>1972.341685948957</v>
+        <v>1496.08265637197</v>
       </c>
       <c r="V13" t="n">
-        <v>1717.65719774307</v>
+        <v>1241.398168166083</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.240027706109</v>
+        <v>951.9809981291228</v>
       </c>
       <c r="X13" t="n">
-        <v>1200.250476808092</v>
+        <v>723.9914472311054</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.457897664562</v>
+        <v>503.1988680875753</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965433</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358683</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760439</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708309</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874797</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333935</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127291</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304029</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100994</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820543</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206858</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5340,31 +5340,31 @@
         <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560485</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
         <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
-        <v>177.684414342863</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608057</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748299</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L15" t="n">
-        <v>791.7848371185813</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.803191370709</v>
+        <v>1653.719034637165</v>
       </c>
       <c r="N15" t="n">
         <v>2005.899154770045</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>561.9183350635728</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>392.982152135666</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937878</v>
+        <v>242.8655127233301</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5452,7 +5452,7 @@
         <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410169</v>
@@ -5461,25 +5461,25 @@
         <v>2428.375774410169</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410169</v>
+        <v>2245.205584149099</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124551</v>
+        <v>2025.526801863481</v>
       </c>
       <c r="U16" t="n">
-        <v>2208.696992124551</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>964.3593790373427</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>743.5667998938126</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C17" t="n">
         <v>1948.261951965432</v>
@@ -5498,13 +5498,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F17" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
         <v>92.81162322608056</v>
@@ -5513,25 +5513,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
         <v>4514.49737412729</v>
@@ -5543,22 +5543,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N18" t="n">
-        <v>2275.814998036501</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
         <v>2552.77562977024</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.754398433617</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C19" t="n">
-        <v>846.8182155057104</v>
+        <v>392.9821521356653</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933746</v>
+        <v>392.9821521356653</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109816</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
         <v>92.81162322608056</v>
@@ -5671,13 +5671,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5692,31 +5692,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410167</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.696992124549</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>2190.286651548252</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>1935.602163342365</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>1646.184993305405</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>1418.195442407387</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y19" t="n">
-        <v>1197.402863263857</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965433</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358683</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760439</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708309</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872363</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608051</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L20" t="n">
         <v>1461.45766301865</v>
@@ -5762,7 +5762,7 @@
         <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
         <v>3602.609239333933</v>
@@ -5771,31 +5771,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421675</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820543</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206858</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K21" t="n">
-        <v>301.0525042748304</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L21" t="n">
-        <v>791.7848371185818</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637165</v>
       </c>
       <c r="N21" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
         <v>2552.77562977024</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.088525324642</v>
+        <v>948.2686446216948</v>
       </c>
       <c r="C22" t="n">
-        <v>576.1523423967351</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="D22" t="n">
-        <v>548.7884825109816</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>548.7884825109816</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130712</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608054</v>
+        <v>175.4425088264936</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
         <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
@@ -5935,25 +5935,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>1919.620778439277</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.93629023339</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X22" t="n">
-        <v>1147.529569298412</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.7369901548817</v>
+        <v>971.5563507918292</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,25 +5975,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876718</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597649</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>261.846482147429</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>261.846482147429</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614416</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179115</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,16 +6239,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400735</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121666</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648821</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611861</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138434</v>
+        <v>1350.991564824961</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703132</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6455,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400785</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121716</v>
+        <v>847.6442739835327</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121716</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121716</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121717</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814783028</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038415</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797817</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854713</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648826</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611866</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138484</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703182</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7087,7 +7087,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.199413378161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,13 +7260,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400739</v>
+        <v>983.3556038098234</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400739</v>
+        <v>814.4194208819165</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400739</v>
+        <v>664.3027814695806</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>516.3896878871876</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892772</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041571</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038368</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797772</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.06254548757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510511</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854709</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648822</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611861</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138438</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703137</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908943</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,49 +7807,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.101820392571</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490408</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188155</v>
+        <v>34.48513033188098</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.32864171281828</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>72.34444050769369</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>159.0614889409766</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>258.7188993398671</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.53007201345005</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111875</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>243.2014934691869</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.30854338499397</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>71.03953493484489</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247361</v>
+        <v>88.63818461247379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628533</v>
+        <v>77.39811087628559</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>143.3016600672236</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>67.18075159108353</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>63.57833957387302</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.29152613728922</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.2915261372894</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>14.80719190324723</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23938,13 +23938,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>267.9592143778867</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613728991</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613728984</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.7771510735035</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5252517313161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067377</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409392835</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.1654765207644</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194163</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>32.89260457060044</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392193454</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>245.5619442858266</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.37549921168767</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.31315520054315</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.158440889166</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038549</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194163</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194071</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>918871.4815957655</v>
+        <v>918871.4815957656</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830347.8047135513</v>
+        <v>830347.8047135498</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892706.8522420317</v>
+        <v>892706.8522420315</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892706.8522420315</v>
+        <v>892706.8522420314</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892706.8522420316</v>
+        <v>892706.8522420315</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992041</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992043</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992041</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797092</v>
+        <v>484893.3234797083</v>
       </c>
       <c r="F2" t="n">
+        <v>521741.8515647202</v>
+      </c>
+      <c r="G2" t="n">
         <v>521741.8515647201</v>
       </c>
-      <c r="G2" t="n">
-        <v>521741.8515647202</v>
-      </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199667</v>
+        <v>132571.3256199696</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698673</v>
+        <v>265633.5342698647</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.042397966</v>
+        <v>348407.042397962</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.030004638</v>
+        <v>143852.0300046417</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>10818.91345744819</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.28075181877</v>
+        <v>30823.28075181945</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054877</v>
+        <v>65071.5936805481</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824339</v>
+        <v>90993.9756082424</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282946</v>
+        <v>37822.10612283032</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214574.6151186961</v>
+        <v>214574.6151186953</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10470.56253415616</v>
+        <v>10470.56253415615</v>
       </c>
       <c r="F4" t="n">
         <v>10550.55566555585</v>
@@ -26454,7 +26454,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26470,16 +26470,16 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.91021638169</v>
+        <v>72576.9102163819</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635167009</v>
+        <v>88006.19635166977</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138385</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-459791.2993585374</v>
       </c>
       <c r="C6" t="n">
-        <v>113954.2994567397</v>
+        <v>113954.2994567373</v>
       </c>
       <c r="D6" t="n">
-        <v>35971.29657973076</v>
+        <v>35971.29657973323</v>
       </c>
       <c r="E6" t="n">
-        <v>38009.522195917</v>
+        <v>37821.89209233544</v>
       </c>
       <c r="F6" t="n">
-        <v>267197.1373806878</v>
+        <v>267151.2323851186</v>
       </c>
       <c r="G6" t="n">
-        <v>411049.167385326</v>
+        <v>411003.2623897603</v>
       </c>
       <c r="H6" t="n">
-        <v>411049.1673853258</v>
+        <v>411003.26238976</v>
       </c>
       <c r="I6" t="n">
-        <v>402146.7582303669</v>
+        <v>402112.0203049317</v>
       </c>
       <c r="J6" t="n">
-        <v>343966.5172687015</v>
+        <v>343931.7793432658</v>
       </c>
       <c r="K6" t="n">
-        <v>382142.3909359967</v>
+        <v>382107.6530105605</v>
       </c>
       <c r="L6" t="n">
-        <v>347894.0780072669</v>
+        <v>347859.3400818318</v>
       </c>
       <c r="M6" t="n">
-        <v>321971.696079572</v>
+        <v>321936.9581541375</v>
       </c>
       <c r="N6" t="n">
-        <v>375143.5655649861</v>
+        <v>375108.8276395496</v>
       </c>
       <c r="O6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="P6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.93376238</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363632</v>
+        <v>717.1508385363654</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053768</v>
+        <v>1232.028328053765</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784372</v>
+        <v>383.4773344784398</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527927</v>
+        <v>1005.723335527923</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26808,22 +26808,22 @@
         <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668848</v>
+        <v>103.0958247668871</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811759</v>
+        <v>216.9140535811739</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362287</v>
+        <v>297.9634359362253</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626182</v>
+        <v>126.0127206626214</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.763454476931</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.107497621599</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278882</v>
+        <v>365.138503427884</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980803</v>
+        <v>154.4219547980842</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.763454476931</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.107497621599</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278879</v>
+        <v>365.138503427884</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980805</v>
+        <v>154.421954798084</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.763454476931</v>
+        <v>119.7634544769336</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.107497621599</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278882</v>
+        <v>365.138503427884</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980803</v>
+        <v>154.4219547980842</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>298.5645954717778</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381486</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27461,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>41.53091770879328</v>
       </c>
       <c r="U3" t="n">
-        <v>12.54125015231165</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.44506826600403</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>1.198471776436406</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>317.0651435116556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.39871126327427</v>
+        <v>94.90928542291027</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.94238459031792</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9490894518052</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394217</v>
+        <v>143.3232867394215</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4754363151146</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.7606041776138</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>72.10756927070325</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>96.96497041612727</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199579</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603346</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.384369338296338</v>
+        <v>4.384369338296025</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0309654321256</v>
+        <v>143.0309654321255</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9471662361903</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>29.46193539002388</v>
+        <v>29.46193539002007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7292459486107</v>
+        <v>150.7292459486106</v>
       </c>
       <c r="I7" t="n">
-        <v>116.559737650565</v>
+        <v>116.5597376505649</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1453906001064</v>
+        <v>119.1453906001062</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4792511931328</v>
+        <v>201.4792511931327</v>
       </c>
       <c r="T7" t="n">
         <v>222.4200010002144</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>178.8780709149028</v>
       </c>
       <c r="H8" t="n">
-        <v>155.5297899350161</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>65.258091556731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222.042447220273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-8.912134012347789e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.267994994951431e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.695979485057337e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7.105427357601002e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-7.444090181253981e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.46895657678257e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.335861388755424e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30888,7 +30888,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.923489426098049e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377337</v>
+        <v>2.883018446377346</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396191</v>
+        <v>29.525712663962</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539624</v>
+        <v>111.1475686539628</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632187</v>
+        <v>244.6925868632195</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983715</v>
+        <v>366.7307576983727</v>
       </c>
       <c r="L5" t="n">
-        <v>454.961933476692</v>
+        <v>454.9619334766934</v>
       </c>
       <c r="M5" t="n">
-        <v>506.232812772455</v>
+        <v>506.2328127724566</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332246</v>
+        <v>514.4241889332262</v>
       </c>
       <c r="O5" t="n">
-        <v>485.75617425706</v>
+        <v>485.7561742570615</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621194</v>
+        <v>414.5816563621207</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.3335582512309</v>
+        <v>311.3335582512319</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1004074822506</v>
+        <v>181.1004074822511</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682364</v>
+        <v>65.69678284682385</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6204132490168</v>
+        <v>12.62041324901684</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101869</v>
+        <v>0.2306414757101876</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248026</v>
+        <v>1.542550860248031</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450068</v>
+        <v>14.89779383450073</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538162</v>
+        <v>53.10975549538179</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236963</v>
+        <v>145.7372284236967</v>
       </c>
       <c r="K6" t="n">
-        <v>249.088136060314</v>
+        <v>249.0881360603148</v>
       </c>
       <c r="L6" t="n">
-        <v>334.929738318327</v>
+        <v>334.9297383183281</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023179</v>
+        <v>390.8472070023191</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695076</v>
+        <v>401.1917695695088</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819065</v>
+        <v>367.0120899819077</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678885</v>
+        <v>294.5595585678894</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958709</v>
+        <v>196.9052641958715</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7734648143468</v>
+        <v>95.77346481434711</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171223</v>
+        <v>28.65220567171232</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631297</v>
+        <v>6.217562458631317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268439</v>
+        <v>0.1014836092268442</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590163</v>
+        <v>1.293222823590167</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882891</v>
+        <v>11.49792655882895</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669327</v>
+        <v>38.8907372766934</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782452</v>
+        <v>91.4308536278248</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589298</v>
+        <v>150.2489789589303</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2669641544866</v>
+        <v>192.2669641544872</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833198</v>
+        <v>202.7185558833204</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226657</v>
+        <v>197.8983617226663</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289078</v>
+        <v>182.7911678289084</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276684</v>
+        <v>156.4094222276689</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2897766189908</v>
+        <v>108.2897766189912</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706313</v>
+        <v>58.14800077706332</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383947</v>
+        <v>22.53734684383954</v>
       </c>
       <c r="T7" t="n">
-        <v>5.525588428067058</v>
+        <v>5.525588428067076</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07053942674128169</v>
+        <v>0.07053942674128191</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718661</v>
+        <v>4.952877700718648</v>
       </c>
       <c r="H11" t="n">
-        <v>50.723658752485</v>
+        <v>50.72365875248487</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569564</v>
+        <v>190.9458175569559</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513708</v>
+        <v>420.3693037513697</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227918</v>
+        <v>630.0246168227902</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561608</v>
+        <v>781.6012477561587</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663163</v>
+        <v>869.681986566314</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334832</v>
+        <v>883.7543503334809</v>
       </c>
       <c r="O11" t="n">
-        <v>834.504172696962</v>
+        <v>834.5041726969598</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604699</v>
+        <v>712.2300044604681</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034827</v>
+        <v>534.8550718034813</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677689</v>
+        <v>311.121203867768</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051266</v>
+        <v>112.8637006051263</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489595</v>
+        <v>21.68122213489589</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574928</v>
+        <v>0.3962302160574918</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191123</v>
+        <v>2.650023196191117</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900375</v>
+        <v>25.59364507900368</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851018</v>
+        <v>91.23983372850995</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962851</v>
+        <v>250.3690774962844</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410903</v>
+        <v>427.9206316410892</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273753</v>
+        <v>575.3920979273738</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893033</v>
+        <v>671.4554387893016</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760414</v>
+        <v>689.2268662760396</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446485</v>
+        <v>630.5079312446469</v>
       </c>
       <c r="P12" t="n">
-        <v>210.8877491630271</v>
+        <v>210.8877491630363</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837456</v>
+        <v>49.22301857837444</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605106</v>
+        <v>10.68145314605103</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283634</v>
+        <v>0.174343631328363</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637942</v>
+        <v>2.221690427637936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.7528476202719</v>
+        <v>19.75284762027185</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478468</v>
+        <v>66.81229031478449</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340025</v>
+        <v>157.0735132340021</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201172</v>
+        <v>258.1200333201165</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326446</v>
+        <v>330.3047750326438</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251002</v>
+        <v>348.2600731250993</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857227</v>
+        <v>339.9792269857218</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537703</v>
+        <v>314.0258433537695</v>
       </c>
       <c r="P13" t="n">
-        <v>268.703358629956</v>
+        <v>268.7033586299553</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361189</v>
+        <v>186.0362775361185</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088416</v>
+        <v>99.8952805008839</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801757</v>
+        <v>38.71800499801747</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725749</v>
+        <v>9.492677281725724</v>
       </c>
       <c r="U13" t="n">
-        <v>0.121183114234797</v>
+        <v>0.1211831142347966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660249</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745726</v>
@@ -32087,7 +32087,7 @@
         <v>740.1323715504303</v>
       </c>
       <c r="N15" t="n">
-        <v>759.721473092764</v>
+        <v>487.0792071670511</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426206</v>
@@ -32321,13 +32321,13 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T20" t="n">
         <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H21" t="n">
         <v>28.21138103088191</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K21" t="n">
-        <v>348.1857632660256</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169075</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32582,7 +32582,7 @@
         <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,34 +32622,34 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R22" t="n">
         <v>110.1126397860859</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653245</v>
+        <v>63.64668233653322</v>
       </c>
       <c r="K5" t="n">
-        <v>146.6409066533909</v>
+        <v>146.6409066533921</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067048</v>
+        <v>219.1955185067062</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451823</v>
+        <v>275.8865795451838</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366337</v>
+        <v>285.0111253366353</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353732</v>
+        <v>255.6579628353748</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068498</v>
+        <v>183.3486606068511</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678141</v>
+        <v>89.02786837678238</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.22824346984784</v>
+        <v>18.89960175703001</v>
       </c>
       <c r="K6" t="n">
-        <v>111.246697085955</v>
+        <v>183.5911375936495</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384528</v>
+        <v>196.3753585384539</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730802996</v>
+        <v>248.7131730803008</v>
       </c>
       <c r="N6" t="n">
-        <v>269.8500574861743</v>
+        <v>269.8500574861755</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374621</v>
+        <v>383.4773344784398</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535583</v>
+        <v>160.5851511535592</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0007778456985</v>
+        <v>56.92349010985001</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.9794871330469</v>
+        <v>127.9794871330474</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148028</v>
+        <v>219.8569894148034</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451604</v>
+        <v>242.302432845161</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018943</v>
+        <v>242.0305341018949</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429475</v>
+        <v>207.3762957429481</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925618</v>
+        <v>153.6879814925624</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729644</v>
+        <v>22.12773336729678</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>328.0496171437443</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246845</v>
+        <v>239.3233992246834</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778113</v>
+        <v>409.9347657778097</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861736</v>
+        <v>545.8348327861715</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390435</v>
+        <v>639.3357533390413</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368922</v>
+        <v>654.34128673689</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752752</v>
+        <v>604.4059612752731</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087052004</v>
+        <v>480.9970087051985</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290332</v>
+        <v>312.5493819290318</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363676</v>
+        <v>95.53566605363591</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296184</v>
+        <v>123.5314508296177</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667313</v>
+        <v>290.0791926667303</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475011</v>
+        <v>436.8377181474996</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672851</v>
+        <v>529.3214048672833</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927081</v>
+        <v>557.8851541927063</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002041</v>
+        <v>487.9116868002025</v>
       </c>
       <c r="P12" t="n">
-        <v>76.91334174869691</v>
+        <v>76.91334174870609</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732969</v>
+        <v>63.71433311732929</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942343</v>
+        <v>235.8505414942337</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929608</v>
+        <v>357.8948002929599</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869408</v>
+        <v>387.8439500869399</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649514</v>
+        <v>384.1113993649504</v>
       </c>
       <c r="O13" t="n">
-        <v>338.61097126781</v>
+        <v>338.6109712678091</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948495</v>
+        <v>265.9819178948488</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442456</v>
+        <v>99.87423428442408</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916659</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946984</v>
@@ -35735,7 +35735,7 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094307</v>
+        <v>355.7374950837178</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981762</v>
@@ -35969,13 +35969,13 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L20" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K21" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872463</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O22" t="n">
         <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q22" t="n">
         <v>118.9021551044799</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060484</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899097</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326296052</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096375</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899094</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
